--- a/src/test/java/testData/TestData.xlsx
+++ b/src/test/java/testData/TestData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TASK-master\TASK-master\src\test\java\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C333857-F1D4-40DA-8FCE-2F6239E7ECAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{82D69B62-5351-4615-91A3-1A4631513E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -420,7 +416,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,74 +462,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
+    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
